--- a/Assets/Resources/Data/1慌亂的現實.xlsx
+++ b/Assets/Resources/Data/1慌亂的現實.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark8\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark8\whogoopo\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="150">
+  <si>
+    <t>0.對話方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.角色佔位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.表情差分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.服裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{CreateBackground}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>我叫徐林，是一個高中二年級的學生。</t>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一個普通高中生最重要的事情就是學習、戀愛跟家庭關係了，很可惜，三件事都與我格格不入。</t>
@@ -76,12 +128,40 @@
     </r>
   </si>
   <si>
+    <t>對話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「我！要！找！徐！林～～～～～徐林，快給我滾出來～～～～～」</t>
   </si>
   <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大喊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「我真的沒錢，求你寬限幾天，別把我賣去做泰國浴──」</t>
   </si>
   <si>
+    <t>驚訝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>不對，我不記得我有欠錢啊！</t>
   </si>
   <si>
@@ -89,6 +169,10 @@
   </si>
   <si>
     <t>一個國小蘿莉大搖大擺的走進高中校門，我一開始只覺得有點不協調。</t>
+  </si>
+  <si>
+    <t>對話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -134,18 +218,50 @@
     </r>
   </si>
   <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不耐煩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>待她一邊喃喃叨唸一邊走近，才發現她身上穿的是我們學校的制服。</t>
   </si>
   <si>
+    <t>對話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「喂，你認識徐林嗎？」</t>
   </si>
   <si>
+    <t>說話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「你、你問我嗎？」</t>
   </si>
   <si>
     <t>「廢話，不然這裡還有其他人？」</t>
   </si>
   <si>
+    <t>說話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>我左右看了一下，確實，這個時間校門附近也沒有其他人可以問。</t>
   </si>
   <si>
@@ -155,13 +271,37 @@
     <t>「我不認識徐林。」</t>
   </si>
   <si>
+    <t>裝傻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「那你知道他在哪裡嗎？」</t>
   </si>
   <si>
+    <t>晴光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「不知道。」</t>
   </si>
   <si>
+    <t>裝傻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「呿，真是個沒用的傢伙。」</t>
+  </si>
+  <si>
+    <t>不耐煩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>這傢伙──算了，還是不要惹麻煩的好。</t>
@@ -182,6 +322,14 @@
   </si>
   <si>
     <t>「徐林，主任叫你帶轉學生去學務處喔。」</t>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -208,10 +356,42 @@
     </r>
   </si>
   <si>
+    <t>閉嘴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閉嘴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>我轉身一看，眼前是一頭粉紅色短髮、閃閃發亮的小飾品，以及一張總是掛著邪媚笑容的臉。</t>
   </si>
   <si>
+    <t>該死的，偏偏是我現在最不想看見的人──彩霞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「你認錯人了，我不是徐林喔。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「難道要我叫你木木嗎？不是說好只有我們兩個人的時候才這樣叫嗎？」</t>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -238,7 +418,23 @@
     </r>
   </si>
   <si>
+    <t>無奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「你就是徐林？那你剛才說你不是？」</t>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -265,6 +461,13 @@
     </r>
   </si>
   <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不耐煩</t>
+  </si>
+  <si>
     <r>
       <t>「痾</t>
     </r>
@@ -289,7 +492,22 @@
     </r>
   </si>
   <si>
+    <t>對話</t>
+  </si>
+  <si>
     <t>「你哪有雙胞胎哥哥？是女朋友來找你所以害羞了嗎？嘻嘻。」</t>
+  </si>
+  <si>
+    <t>曖昧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「妳不說話沒人當妳是啞巴！」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生氣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>彩霞是出了名的惡趣味，最喜歡搞事湊熱鬧，偏偏這時候來糾纏不清。</t>
@@ -328,6 +546,10 @@
   </si>
   <si>
     <t>「救命啊！光天化日調戲良家少男啊！」</t>
+  </si>
+  <si>
+    <t>驚訝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>「別擋啦，快讓我看看！」</t>
@@ -363,7 +585,23 @@
     </r>
   </si>
   <si>
+    <t>舔嘴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「住手、快住手！你們兩個在校門口想做什麼傷風敗俗的事情？」</t>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>學校主任匆匆趕到，小蘿莉不耐煩的「嘖」了一聲，這才鬆開手。</t>
@@ -435,7 +673,15 @@
     <t>「別管什麼學校了，跟我去約會吧。」</t>
   </si>
   <si>
+    <t>微笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>「約會？」</t>
+  </si>
+  <si>
+    <t>興奮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>「怎麼了嗎？」</t>
@@ -474,6 +720,10 @@
     </r>
   </si>
   <si>
+    <t>燦笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>有人可以告訴我她在說什麼嗎？去愛情旅館脫衣服幹什麼？是要害我被</t>
     </r>
@@ -534,235 +784,32 @@
     <t>謝謝妳喔，但如果妳可以閉嘴會更好。</t>
   </si>
   <si>
+    <t>「隨便啦，那就一起走吧。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>晴光又伸手想拉我，卻有一人擋在我面前，一把拍開晴光的手。</t>
   </si>
   <si>
     <t>「放開妳的髒手，小矮子。」</t>
   </si>
   <si>
+    <t>剪影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>從我的角度，只能看到一頭烏亮的黑髮。</t>
   </si>
   <si>
+    <t>但髮間這股梔子花的香味、耳邊低沉卻撫媚的聲音，讓我確定眼前肯定是「夜雨」學姊沒錯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>我最討厭麻煩的事情，但事情偏偏要變得麻煩了。</t>
-  </si>
-  <si>
-    <t>徐林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旁白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>對話</t>
-  </si>
-  <si>
-    <t>對話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大喊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生氣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裝傻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不耐煩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>該死的，偏偏是我現在最不想看見的人──彩霞。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「你認錯人了，我不是徐林喔。」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舔嘴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>興奮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「隨便啦，那就一起走吧。」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曖昧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驚訝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無奈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「妳不說話沒人當妳是啞巴！」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>說話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>閉眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>閉嘴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微笑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大笑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{CreateBackground}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>學校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.對話方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.角色佔位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.表情差分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.服裝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剪影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但髮間這股梔子花的香味、耳邊低沉卻撫媚的聲音，讓我確定眼前肯定是「夜雨」學姊沒錯。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{EndDialouge}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驚訝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -821,18 +868,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,7 +912,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -880,7 +924,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -927,23 +971,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -979,23 +1006,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1148,41 +1158,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="123" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="133.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="H1">
         <v>7</v>
@@ -1195,830 +1202,830 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
-        <v>112</v>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>23</v>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>24</v>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>29</v>
+      <c r="C32" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>30</v>
+      <c r="C33" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>33</v>
+      <c r="C37" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>96</v>
+      <c r="C38" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>10</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>79</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>36</v>
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" t="s">
         <v>88</v>
       </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" t="s">
-        <v>108</v>
-      </c>
       <c r="F43" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F45" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>40</v>
+      <c r="C47" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>41</v>
+      <c r="C48" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>43</v>
+      <c r="C50" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>44</v>
+      <c r="C51" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>45</v>
+      <c r="C52" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>44</v>
+      <c r="C53" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>46</v>
+      <c r="C54" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>44</v>
+      <c r="C55" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>47</v>
+      <c r="C56" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C57" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="E57" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F58" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G58" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E59" t="s">
         <v>104</v>
@@ -2026,321 +2033,321 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F60" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E61" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>53</v>
+        <v>110</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F62" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>54</v>
+      <c r="C63" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>55</v>
+        <v>110</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>56</v>
+        <v>110</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F65" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>57</v>
+      <c r="C66" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>58</v>
+      <c r="C67" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>59</v>
+      <c r="C68" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>61</v>
+        <v>110</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="F70" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>63</v>
+        <v>110</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D72" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F72" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>65</v>
+        <v>110</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F74" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>66</v>
+      <c r="C75" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>67</v>
+      <c r="C76" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" t="s">
         <v>88</v>
       </c>
-      <c r="B77" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" t="s">
-        <v>120</v>
-      </c>
-      <c r="E77" t="s">
-        <v>108</v>
-      </c>
       <c r="F77" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D78" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E78" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="F78" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="E79" t="s">
         <v>104</v>
@@ -2348,254 +2355,257 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="D80" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E80" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="F80" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>70</v>
+        <v>110</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" t="s">
+        <v>112</v>
       </c>
       <c r="F81" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D82" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E82" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="F82" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>72</v>
+        <v>110</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" t="s">
+        <v>112</v>
       </c>
       <c r="F83" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D84" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E84" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F84" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>74</v>
+        <v>110</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" t="s">
+        <v>112</v>
       </c>
       <c r="F85" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D86" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E86" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>76</v>
+      <c r="C87" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="F88" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>78</v>
+      <c r="C89" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>101</v>
+        <v>58</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E90" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="F90" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D92" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="G92" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>81</v>
+      <c r="C93" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>125</v>
+      <c r="C94" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C96" s="3" t="s">
-        <v>126</v>
+      <c r="C95" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/1慌亂的現實.xlsx
+++ b/Assets/Resources/Data/1慌亂的現實.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="152">
   <si>
     <t>0.對話方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,6 +810,14 @@
   </si>
   <si>
     <t>我最討厭麻煩的事情，但事情偏偏要變得麻煩了。</t>
+  </si>
+  <si>
+    <t>{EndDialouge}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{CreateWhiteSplash}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -868,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,6 +885,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1915,14 +1926,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>99</v>
+      <c r="C51" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2604,8 +2609,14 @@
         <v>149</v>
       </c>
     </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C96" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>